--- a/data/trans_dic/P2A_lim_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02006171217005443</v>
+        <v>0.02185992502979495</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09202631644521025</v>
+        <v>0.09141906641591999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05185472241387355</v>
+        <v>0.0519152482108405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07874114679118895</v>
+        <v>0.07878959764167866</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01526967898910311</v>
+        <v>0.01562384106300077</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1288189342826757</v>
+        <v>0.1304733600788902</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08859510266466109</v>
+        <v>0.08689883150407919</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1059742157194424</v>
+        <v>0.1033928785653548</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02353132579798213</v>
+        <v>0.02331676674033172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1215010502885882</v>
+        <v>0.1226999609527868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07840905667153196</v>
+        <v>0.07929318370848064</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09935971833607007</v>
+        <v>0.09705014678488279</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07033152310202929</v>
+        <v>0.07331979610654669</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1723283300560486</v>
+        <v>0.1727170039089871</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1205418191771401</v>
+        <v>0.119663196209886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1455388917150724</v>
+        <v>0.1433554166161317</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06104102505510129</v>
+        <v>0.06056213997339016</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2256142340228369</v>
+        <v>0.2245467749505215</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1657854892708741</v>
+        <v>0.1716662293785048</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1647100158114034</v>
+        <v>0.1639390205934759</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05904922975583812</v>
+        <v>0.05824560464545488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1862584731140225</v>
+        <v>0.1859241274290872</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1299678201762641</v>
+        <v>0.1287937692270541</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1421620235527173</v>
+        <v>0.1429196470452674</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0479319340301671</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1888550375200541</v>
+        <v>0.188855037520054</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07543139225640894</v>
+        <v>0.07293689278703605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07554970018955751</v>
+        <v>0.07305450156246798</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02688764301964451</v>
+        <v>0.02504970491626944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1522614242139607</v>
+        <v>0.1530712129850356</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08009672190830294</v>
+        <v>0.08230392006517721</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08085358593293802</v>
+        <v>0.07690188458482249</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03760154993071018</v>
+        <v>0.03721417029345726</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1591637613277096</v>
+        <v>0.1597874065763103</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08524924787311899</v>
+        <v>0.08620173166787067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08329764708896939</v>
+        <v>0.0839344646863126</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03630651030060118</v>
+        <v>0.0361534869993635</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1680372722490282</v>
+        <v>0.1653508627430753</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1324123519173027</v>
+        <v>0.1295069910668764</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1333281620200295</v>
+        <v>0.1319524700268898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06279310554801266</v>
+        <v>0.06142878161716771</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2343702217708197</v>
+        <v>0.2351801038735445</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1378487698989923</v>
+        <v>0.1369131710994658</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1341975148078422</v>
+        <v>0.1336737276025253</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08083664694796286</v>
+        <v>0.08004795383684885</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.218489475432647</v>
+        <v>0.2156722782557656</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1266383233053018</v>
+        <v>0.1257558797459434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1235396579103996</v>
+        <v>0.1225437567674115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06459222046106722</v>
+        <v>0.0629187919456137</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2140838306494005</v>
+        <v>0.2129392795652652</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.03355316926852613</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1446313110152589</v>
+        <v>0.1446313110152588</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01279576934582105</v>
+        <v>0.01296624666500166</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06507649112646186</v>
+        <v>0.06629225579490991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008130939107041822</v>
+        <v>0.008340980401174444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1216730118735119</v>
+        <v>0.1265287837007976</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01597030009775389</v>
+        <v>0.0160601217718587</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06729725365074281</v>
+        <v>0.0650075083331144</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02601707685703704</v>
+        <v>0.02730347377193579</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1039116453304449</v>
+        <v>0.1013742198794062</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01889542495541239</v>
+        <v>0.01814999682068835</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07373371461298084</v>
+        <v>0.07413596832163324</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02034155113960442</v>
+        <v>0.02254929213704132</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.121467333714024</v>
+        <v>0.1208284757848152</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05099133250853867</v>
+        <v>0.04892675561033169</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.141658036153802</v>
+        <v>0.1371790101335052</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04192038609569938</v>
+        <v>0.040502157809744</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2007823522425374</v>
+        <v>0.2027993444350839</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0556271320004088</v>
+        <v>0.05671835464052915</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.13529419714336</v>
+        <v>0.1334637609799928</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06944240838063787</v>
+        <v>0.0756527736268381</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1629505758954835</v>
+        <v>0.1657949896648077</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04488233873943302</v>
+        <v>0.04421765430380894</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1257417554733765</v>
+        <v>0.1214985196593172</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04943867525269245</v>
+        <v>0.0506887667933021</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1700950817532092</v>
+        <v>0.1722775304150934</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1339843396410283</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06905936044917078</v>
+        <v>0.0690593604491708</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05677939727158516</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03496604521524885</v>
+        <v>0.03532602655629392</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04768361302290091</v>
+        <v>0.04572283994111662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0760260653778437</v>
+        <v>0.07995628048788211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05047493997624754</v>
+        <v>0.05191393673112587</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0374748813439586</v>
+        <v>0.0387193873773615</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0998815453780271</v>
+        <v>0.1008594885415363</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1000872851458832</v>
+        <v>0.09994127229598908</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05103599512544872</v>
+        <v>0.05190738259095565</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04178085369998744</v>
+        <v>0.04067566367957367</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.078954290362753</v>
+        <v>0.08134557449064746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09528613042671931</v>
+        <v>0.09945459084645969</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05664432870624704</v>
+        <v>0.05702011842057336</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08223093915012866</v>
+        <v>0.08367113953762091</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.102681738278711</v>
+        <v>0.1017417566337434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1438808932726553</v>
+        <v>0.1458274744998539</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1282180359971231</v>
+        <v>0.128056088470809</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08387539607831224</v>
+        <v>0.08452934813948754</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1725173752178209</v>
+        <v>0.1707359756587695</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1759430920208238</v>
+        <v>0.1737887139647019</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09414401982602071</v>
+        <v>0.09325810266467492</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07426248142033455</v>
+        <v>0.07478418713512401</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1249596608248294</v>
+        <v>0.1252577795688052</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1469451453015879</v>
+        <v>0.1476357369049731</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0989307339307615</v>
+        <v>0.1010941109771172</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.08448888191589174</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0785919188561055</v>
+        <v>0.07859191885610552</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1290046352741413</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06406875304801178</v>
+        <v>0.06510611983996237</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1573932912933521</v>
+        <v>0.155522809426908</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05333030313188756</v>
+        <v>0.05261490655870765</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05182072466684985</v>
+        <v>0.05156617533715874</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08777294440198859</v>
+        <v>0.08631993559729283</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1720368595570547</v>
+        <v>0.1700945579228735</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05252199368153782</v>
+        <v>0.05079177532150535</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08385505428953471</v>
+        <v>0.08371294242076582</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0840121860002139</v>
+        <v>0.08724973110732764</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1774711151881025</v>
+        <v>0.1781676713900687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05970924004414595</v>
+        <v>0.05957059697538261</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07759248492445051</v>
+        <v>0.07530653468008336</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1456033968929762</v>
+        <v>0.1418061257434455</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2719703370679488</v>
+        <v>0.2720632650410352</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1357973973083215</v>
+        <v>0.1306135473097566</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1133477112409275</v>
+        <v>0.1136755962068434</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1819593961841763</v>
+        <v>0.1903067627822985</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2870789321276305</v>
+        <v>0.2805600470587333</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1265484367087154</v>
+        <v>0.1296920805705898</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1383177901797067</v>
+        <v>0.1384957175639769</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1456966687624919</v>
+        <v>0.1510352755045803</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2572972500039622</v>
+        <v>0.2613151496045025</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1112071099990837</v>
+        <v>0.1135565005834626</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1166215184353295</v>
+        <v>0.1183347848879133</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1179452575475898</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2367424501184762</v>
+        <v>0.2367424501184761</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02213959818411582</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003790932179985756</v>
+        <v>0.00363885561374939</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04434135376298527</v>
+        <v>0.04900785982503963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06912940762102396</v>
+        <v>0.07128337778519171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2066891355041002</v>
+        <v>0.2055727043132203</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01342267164193251</v>
+        <v>0.01349284861188335</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09200815683450619</v>
+        <v>0.08984307659606722</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08119634077893721</v>
+        <v>0.08178996132694234</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1978705988639662</v>
+        <v>0.1985787110537481</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01136916079789491</v>
+        <v>0.01158418210830243</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07951240400563873</v>
+        <v>0.07753916725219892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08540415427555455</v>
+        <v>0.08560338399392274</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2129737778932461</v>
+        <v>0.2132217074442605</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0412804673757219</v>
+        <v>0.03654663914343173</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1131704827763116</v>
+        <v>0.1165770584491318</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1429453655842011</v>
+        <v>0.1462445479594187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2929424650681196</v>
+        <v>0.2968655841700163</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05601898958641584</v>
+        <v>0.05611125463005114</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1767097916118275</v>
+        <v>0.1724236657294719</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.165028984967611</v>
+        <v>0.1616500682275938</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2805385275243097</v>
+        <v>0.2814346176824813</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03625133420764589</v>
+        <v>0.03819766134027856</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1307533302198622</v>
+        <v>0.1308240118633666</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1404715710602928</v>
+        <v>0.1396109196828376</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2750975023699428</v>
+        <v>0.2744959474562796</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.07455584231604483</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.196657921545755</v>
+        <v>0.1966579215457549</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.07436606430067773</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04971314921607439</v>
+        <v>0.05038115630749104</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05974896710041424</v>
+        <v>0.06111657115820621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03764349267183908</v>
+        <v>0.03804180344299108</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1341032059583603</v>
+        <v>0.1349136387403083</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05839247676597012</v>
+        <v>0.05901692345017771</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06958877517267333</v>
+        <v>0.07294221561721323</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05303710519087859</v>
+        <v>0.05436055115640128</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1716170787409409</v>
+        <v>0.1696612022192404</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06105226096391227</v>
+        <v>0.05986184055057572</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07035263512957066</v>
+        <v>0.07143337823803893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05182412726826234</v>
+        <v>0.05176171058295102</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1600551718294076</v>
+        <v>0.1587853060045606</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09387651894442277</v>
+        <v>0.09151547064074061</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1045998927439385</v>
+        <v>0.1063508568597066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07604628190149126</v>
+        <v>0.074998909247391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1932932593042436</v>
+        <v>0.1927049646586871</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1036124472066706</v>
+        <v>0.1031815696907241</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1172284315567094</v>
+        <v>0.1186849065004291</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09663039890275203</v>
+        <v>0.0957253456583199</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2252416463256776</v>
+        <v>0.2227059037537941</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09328683608120078</v>
+        <v>0.0902559164674907</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1043812434533825</v>
+        <v>0.1028182617687321</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07951849350412904</v>
+        <v>0.08159820647210737</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2005024850330572</v>
+        <v>0.1989707274320845</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06290823147512065</v>
+        <v>0.06356310827401108</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06074952895577459</v>
+        <v>0.06105089490010163</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06723457145236569</v>
+        <v>0.06869991488390233</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05974930369042615</v>
+        <v>0.06081861605627589</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09480800987644321</v>
+        <v>0.09629490680450004</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06905801409839396</v>
+        <v>0.06915714212508679</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07224671536911567</v>
+        <v>0.06945141327193596</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08437262369098697</v>
+        <v>0.08412406775298442</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08511480816143008</v>
+        <v>0.08469663835165182</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06991484485770147</v>
+        <v>0.06805487320593541</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07637454365118578</v>
+        <v>0.07336268366414628</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07665399187337983</v>
+        <v>0.07680261360261846</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1040620610979609</v>
+        <v>0.1041642727420522</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1042955842062668</v>
+        <v>0.1035866448264493</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1113038330563303</v>
+        <v>0.1118288437879081</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09895983406338231</v>
+        <v>0.09817486084920354</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1421580711844595</v>
+        <v>0.142017077184439</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1080859940989228</v>
+        <v>0.1092710111835762</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1135657892070611</v>
+        <v>0.1117036316610869</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1222588302228262</v>
+        <v>0.1193485363929575</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1172017476379793</v>
+        <v>0.1155460422925014</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.09992258639370355</v>
+        <v>0.09861147491240867</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1039124718671716</v>
+        <v>0.1043952171918699</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.104473589664338</v>
+        <v>0.1031343328227795</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08584840693053677</v>
+        <v>0.08486196156895577</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06133246210174855</v>
+        <v>0.06144406259799352</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1243629726215608</v>
+        <v>0.1244809848605344</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1045243533825034</v>
+        <v>0.1036203553886634</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07697927246256764</v>
+        <v>0.07797836776051914</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1353870123263746</v>
+        <v>0.1357164771962186</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09742210928709205</v>
+        <v>0.09865785065023695</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07287204604590748</v>
+        <v>0.07223225538348983</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1330474081047858</v>
+        <v>0.1323767836660814</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1064018071386423</v>
+        <v>0.1061510008502603</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07893708787561635</v>
+        <v>0.07985018813113387</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1487415243536528</v>
+        <v>0.1475491876805594</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1264990469651132</v>
+        <v>0.1266921005266389</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09722858783952383</v>
+        <v>0.09837571667271901</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1551417724226002</v>
+        <v>0.1549495295350229</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1135711967415785</v>
+        <v>0.1134357087856461</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.08619526979873124</v>
+        <v>0.08636485465795297</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1486237249953962</v>
+        <v>0.1482844585565282</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5443</v>
+        <v>5931</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27124</v>
+        <v>26945</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15233</v>
+        <v>15251</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25106</v>
+        <v>25122</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3964</v>
+        <v>4056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37003</v>
+        <v>37478</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25578</v>
+        <v>25088</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>33494</v>
+        <v>32678</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12493</v>
+        <v>12379</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>70712</v>
+        <v>71409</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45670</v>
+        <v>46185</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>63084</v>
+        <v>61618</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19082</v>
+        <v>19893</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50792</v>
+        <v>50906</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35410</v>
+        <v>35152</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46404</v>
+        <v>45708</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15847</v>
+        <v>15723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64807</v>
+        <v>64500</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>47863</v>
+        <v>49561</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>52058</v>
+        <v>51815</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31351</v>
+        <v>30924</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>108399</v>
+        <v>108205</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>75702</v>
+        <v>75018</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>90260</v>
+        <v>90741</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37193</v>
+        <v>35963</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38192</v>
+        <v>36931</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13213</v>
+        <v>12310</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>80293</v>
+        <v>80720</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>40365</v>
+        <v>41477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42348</v>
+        <v>40279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19477</v>
+        <v>19277</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>86653</v>
+        <v>86992</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>84996</v>
+        <v>85945</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>85738</v>
+        <v>86393</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>36648</v>
+        <v>36494</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>180096</v>
+        <v>177217</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>65289</v>
+        <v>63857</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>67401</v>
+        <v>66706</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30857</v>
+        <v>30187</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>123593</v>
+        <v>124020</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>69469</v>
+        <v>68997</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70288</v>
+        <v>70014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41873</v>
+        <v>41464</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>118951</v>
+        <v>117417</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>126261</v>
+        <v>125382</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>127158</v>
+        <v>126133</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65200</v>
+        <v>63511</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>229447</v>
+        <v>228221</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4080</v>
+        <v>4134</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21088</v>
+        <v>21482</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2590</v>
+        <v>2657</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38341</v>
+        <v>39871</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5357</v>
+        <v>5387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>22950</v>
+        <v>22169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8750</v>
+        <v>9182</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>37032</v>
+        <v>36128</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12362</v>
+        <v>11875</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49038</v>
+        <v>49305</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13321</v>
+        <v>14767</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>81565</v>
+        <v>81136</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16258</v>
+        <v>15600</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45904</v>
+        <v>44452</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13354</v>
+        <v>12903</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>63270</v>
+        <v>63906</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18658</v>
+        <v>19024</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>46138</v>
+        <v>45514</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23354</v>
+        <v>25443</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58072</v>
+        <v>59086</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29365</v>
+        <v>28930</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>83627</v>
+        <v>80805</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>32376</v>
+        <v>33195</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>114219</v>
+        <v>115684</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12436</v>
+        <v>12564</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17833</v>
+        <v>17100</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>28127</v>
+        <v>29581</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18718</v>
+        <v>19252</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13920</v>
+        <v>14383</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>38849</v>
+        <v>39229</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38762</v>
+        <v>38706</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21535</v>
+        <v>21903</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30380</v>
+        <v>29576</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>60237</v>
+        <v>62061</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>72155</v>
+        <v>75312</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>44908</v>
+        <v>45206</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29247</v>
+        <v>29759</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38401</v>
+        <v>38050</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53231</v>
+        <v>53951</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47549</v>
+        <v>47489</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31156</v>
+        <v>31399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>67101</v>
+        <v>66408</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68140</v>
+        <v>67305</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39725</v>
+        <v>39351</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>53998</v>
+        <v>54378</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>95336</v>
+        <v>95563</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>111274</v>
+        <v>111797</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>78433</v>
+        <v>80148</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13026</v>
+        <v>13237</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33465</v>
+        <v>33067</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11264</v>
+        <v>11113</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10324</v>
+        <v>10273</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>18228</v>
+        <v>17926</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37778</v>
+        <v>37351</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11481</v>
+        <v>11102</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>18358</v>
+        <v>18327</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>34527</v>
+        <v>35858</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>76705</v>
+        <v>77006</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>25664</v>
+        <v>25604</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>32445</v>
+        <v>31489</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29602</v>
+        <v>28830</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>57826</v>
+        <v>57846</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28683</v>
+        <v>27588</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>22581</v>
+        <v>22646</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>37787</v>
+        <v>39521</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>63040</v>
+        <v>61608</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27662</v>
+        <v>28349</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>30281</v>
+        <v>30320</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>59878</v>
+        <v>62072</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>111206</v>
+        <v>112943</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>47798</v>
+        <v>48807</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>48764</v>
+        <v>49481</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1019</v>
+        <v>978</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12149</v>
+        <v>13427</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>18190</v>
+        <v>18756</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>55952</v>
+        <v>55650</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3733</v>
+        <v>3753</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>25765</v>
+        <v>25159</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>22176</v>
+        <v>22338</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>52188</v>
+        <v>52375</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6218</v>
+        <v>6336</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>44051</v>
+        <v>42958</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>45797</v>
+        <v>45904</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>113825</v>
+        <v>113958</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11096</v>
+        <v>9823</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31007</v>
+        <v>31940</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>37612</v>
+        <v>38480</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>79302</v>
+        <v>80364</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15581</v>
+        <v>15607</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>49484</v>
+        <v>48284</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>45072</v>
+        <v>44149</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>73992</v>
+        <v>74228</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19827</v>
+        <v>20892</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>72439</v>
+        <v>72478</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>75326</v>
+        <v>74865</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>147028</v>
+        <v>146706</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>30575</v>
+        <v>30986</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>39542</v>
+        <v>40447</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>24506</v>
+        <v>24765</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>94907</v>
+        <v>95481</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>37267</v>
+        <v>37666</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>48153</v>
+        <v>50473</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>36561</v>
+        <v>37473</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>132096</v>
+        <v>130590</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>76514</v>
+        <v>75022</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>95241</v>
+        <v>96704</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>69462</v>
+        <v>69378</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>236470</v>
+        <v>234594</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>57737</v>
+        <v>56284</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>69224</v>
+        <v>70383</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>49506</v>
+        <v>48824</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>136797</v>
+        <v>136381</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>66127</v>
+        <v>65852</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>81117</v>
+        <v>82125</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>66611</v>
+        <v>65987</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>173371</v>
+        <v>171419</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>116911</v>
+        <v>113113</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>141307</v>
+        <v>139191</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>106581</v>
+        <v>109369</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>296228</v>
+        <v>293965</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>46630</v>
+        <v>47115</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>47197</v>
+        <v>47432</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>52348</v>
+        <v>53489</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>47567</v>
+        <v>48418</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>73994</v>
+        <v>75155</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>56894</v>
+        <v>56975</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>59688</v>
+        <v>57378</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>69842</v>
+        <v>69636</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>129519</v>
+        <v>128883</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>111918</v>
+        <v>108940</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>122562</v>
+        <v>117729</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>124477</v>
+        <v>124718</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>77134</v>
+        <v>77210</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>81029</v>
+        <v>80478</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>86659</v>
+        <v>87068</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>78782</v>
+        <v>78157</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>110949</v>
+        <v>110839</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>89047</v>
+        <v>90023</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>93824</v>
+        <v>92286</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>101203</v>
+        <v>98794</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>178345</v>
+        <v>175826</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>159953</v>
+        <v>157854</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>166754</v>
+        <v>167528</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>169653</v>
+        <v>167478</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>293912</v>
+        <v>290534</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>207158</v>
+        <v>207535</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>436003</v>
+        <v>436417</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>371732</v>
+        <v>368517</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>272314</v>
+        <v>275848</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>503503</v>
+        <v>504728</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>680009</v>
+        <v>688634</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>503919</v>
+        <v>499495</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>961252</v>
+        <v>956407</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>364279</v>
+        <v>363420</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>266620</v>
+        <v>269704</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>521472</v>
+        <v>517292</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>449883</v>
+        <v>450570</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>343946</v>
+        <v>348004</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>576971</v>
+        <v>576256</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>792730</v>
+        <v>791784</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>596051</v>
+        <v>597223</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1073789</v>
+        <v>1071338</v>
       </c>
     </row>
     <row r="40">
